--- a/src/Raw/Receipt.xlsx
+++ b/src/Raw/Receipt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java Projects\HotelApplication\src\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FF44C7-6986-4D1C-B6E7-65A0C59A4A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B115730-D4A2-4003-9CB3-D1602CCF8BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1800" windowWidth="21600" windowHeight="11505" xr2:uid="{F181A0C3-2FA9-45F9-9251-9EE5983D4E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F181A0C3-2FA9-45F9-9251-9EE5983D4E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Balance:</t>
   </si>
   <si>
-    <t>CheckOut:</t>
-  </si>
-  <si>
     <t>5th Dec 2022   11:45pm</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">            …Thanks for your Patronage</t>
+  </si>
+  <si>
+    <t>ToCheckOut:</t>
   </si>
 </sst>
 </file>
@@ -516,20 +516,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CED631-CF5E-4CF4-92C5-28C2D694A13E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -539,19 +539,19 @@
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -639,20 +639,20 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/Raw/Receipt.xlsx
+++ b/src/Raw/Receipt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java Projects\HotelApplication\src\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B115730-D4A2-4003-9CB3-D1602CCF8BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56374A02-925B-410E-9C8F-0AEB03FAC85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F181A0C3-2FA9-45F9-9251-9EE5983D4E03}"/>
+    <workbookView xWindow="8505" yWindow="3240" windowWidth="21600" windowHeight="11505" xr2:uid="{F181A0C3-2FA9-45F9-9251-9EE5983D4E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,26 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>11th Dec 2022</t>
-  </si>
-  <si>
-    <t>Time:</t>
-  </si>
-  <si>
-    <t>11:45pm</t>
-  </si>
-  <si>
     <t>RECEIPT</t>
   </si>
   <si>
-    <t>...Comfort plus Hospitality</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -60,12 +48,6 @@
     <t>Room:</t>
   </si>
   <si>
-    <t>Occupants:</t>
-  </si>
-  <si>
-    <t>Days:</t>
-  </si>
-  <si>
     <t>Amount:</t>
   </si>
   <si>
@@ -75,41 +57,56 @@
     <t>Balance:</t>
   </si>
   <si>
-    <t>5th Dec 2022   11:45pm</t>
-  </si>
-  <si>
     <t>Tel: 07068052420,  08033471798</t>
   </si>
   <si>
-    <t>Chukwudo James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Louisiana Hotel &amp; Suites</t>
-  </si>
-  <si>
-    <t>No:199</t>
-  </si>
-  <si>
-    <t>08142605775</t>
-  </si>
-  <si>
-    <t>21&amp;23 Tajudeen Str., Afromedia Estate, Okokomaiko,</t>
-  </si>
-  <si>
-    <t>Ojo Lagos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            …Thanks for your Patronage</t>
-  </si>
-  <si>
-    <t>ToCheckOut:</t>
+    <t>Louisiana Hotel &amp; Suites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ...Comfort plus Hospitality</t>
+  </si>
+  <si>
+    <t>CheckOut:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       …Thanks for your Patronage</t>
+  </si>
+  <si>
+    <t>No:4</t>
+  </si>
+  <si>
+    <t>22nd Dec 2022     8:28 PM</t>
+  </si>
+  <si>
+    <t>James Chukwuedo</t>
+  </si>
+  <si>
+    <t>0814260575</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>29th Dec 2022  12:00 PM</t>
+  </si>
+  <si>
+    <t>21&amp;23 Tajudeen Str., Afromedia Estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Okokomaiko, Ojo Lagos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +160,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
+      <name val="Britannic Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Bahnschrift Light Condensed"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,13 +194,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,148 +517,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CED631-CF5E-4CF4-92C5-28C2D694A13E}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
+      <c r="A5" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
-        <v>4</v>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <v>11000</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
